--- a/TestResults/GeoRltspPost.xlsx
+++ b/TestResults/GeoRltspPost.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -56,93 +56,101 @@
     <t>Post</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"3792568"
 	},
 	"geopoliticalRelationship":
 	{
-		"fromGeopoliticalId":"3791809569618985503",
-		"toGeopoliticalId":"1205073563322569842",
+		"fromGeopoliticalId":"2063825024503874704",
+		"toGeopoliticalId":"5695698121285912900",
 		"relationshipTypeCode":"CS",
-		"effectiveDate":"2019-08-01",
-		"expirationDate":"2019-08-30"
+		"effectiveDate":"2021-08-20",
+		"expirationDate":"2021-09-29"
 	}
 }</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>
-{
-	"errorMessages":
-	{
-		"e":"Record already exists."
-	},
-	"errorSummary":"Duplicate Entry Found",
-	"timestamp":"09-07-2019 10:34:04"
-}</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>Validate that the Geopolitical RelationShip service is not created when the fromGeopoliticalId is empty in JSON Request.</t>
-  </si>
-  <si>
-    <t>
+    <t xml:space="preserve">Input_UserName: 3792568
+Input_fromGeopoliticalId: 2063825024503874704
+Input_toGeopoliticalId: 5695698121285912900
+Input_relationshipTypeCode: CS
+Input_effectiveDate2021-08-20
+Input_expirationDate2021-09-29
+Input_LastUpdateUserName:3792568
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_UserName: 3792568
+DB_GEOPL_COMPT_ID: 2063825024503874704
+DB_RELTD_GEOPL_COMPT_ID: 5695698121285912900
+DB_GEOPL_RLTSP_TYPE_CD: CS
+DB_effectiveDate2021-08-20
+DB_expirationDate2021-09-29
+DB_LastUpdateUserName:3792568
+</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3572253"
+		"userName":"3792568",
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"GeopoliticalRelationship Details successfully saved with GeoplRltspCmptId :2063825024503874704",
+			"data":null
+		}
 	},
-	"geopoliticalRelationship":
+	"data":
 	{
-		"fromGeopoliticalId":"",
-		"toGeopoliticalId":"3920426984231736114",
-		"relationshipTypeCode":"CS",
-		"effectiveDate":"2019-08-01",
-		"expirationDate":"2019-08-30"
+		"geoplRltspCmptId":2063825024503874704
 	}
 }</t>
   </si>
   <si>
-    <t>Input_UserName: 3572253
-Input_fromGeopoliticalId: 
-Input_toGeopoliticalId: 3920426984231736114
+    <t>Pass</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Audit Table Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3792568
+Input_fromGeopoliticalId: 2063825024503874704
+Input_toGeopoliticalId: 5695698121285912900
 Input_relationshipTypeCode: CS
-Input_effectiveDate2019-08-01
-Input_expirationDate2019-08-30
+Input_effectiveDate2021-08-20
+Input_expirationDate2021-09-29
+Input_LastUpdateUserName:3792568
+Expected RevisionType CD:0
 </t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 400 Bad Request</t>
-  </si>
-  <si>
-    <t>
-{
-	"errorMessages":
-	{
-		"e":"Country not found"
-	},
-	"errorSummary":"Exception",
-	"timestamp":"09-07-2019 10:34:05"
-}</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t xml:space="preserve">DB_UserName: 3792568
+DB_GEOPL_COMPT_ID: 2063825024503874704
+DB_RELTD_GEOPL_COMPT_ID: 5695698121285912900
+DB_GEOPL_RLTSP_TYPE_CD: CS
+DB_effectiveDate2021-08-20
+DB_expirationDate2021-09-29
+DB_LastUpdateUserName:3792568
+DB_RevisionType CD:0
+</t>
+  </si>
+  <si>
+    <t>Audit Table validation</t>
   </si>
 </sst>
 </file>
@@ -167,57 +175,57 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -424,17 +432,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.58720703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.246484375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.2498046875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.382421875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.58818359375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.8267578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -489,27 +497,31 @@
         <v>15</v>
       </c>
       <c r="F2" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G2" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="G2" t="s" s="8">
+        <v>17</v>
+      </c>
       <c r="H2" t="s" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="K2" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="12">
+        <v>21</v>
+      </c>
       <c r="L2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="13">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s" s="14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s" s="15">
         <v>13</v>
@@ -518,25 +530,25 @@
         <v>21</v>
       </c>
       <c r="E3" t="s" s="17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s" s="19">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s" s="20">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s" s="21">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="23">
         <v>25</v>
-      </c>
-      <c r="J3" t="s" s="22">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s" s="23">
-        <v>15</v>
       </c>
       <c r="L3"/>
     </row>

--- a/TestResults/GeoRltspPost.xlsx
+++ b/TestResults/GeoRltspPost.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="131">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -60,12 +60,12 @@
 {
 	"meta":
 	{
-		"userName":"3792568"
+		"userName":"3705426.0"
 	},
 	"geopoliticalRelationship":
 	{
-		"fromGeopoliticalId":"2063825024503874704",
-		"toGeopoliticalId":"5695698121285912900",
+		"fromGeopoliticalId":"511642362449307022",
+		"toGeopoliticalId":"3210831850659128918",
 		"relationshipTypeCode":"CS",
 		"effectiveDate":"2021-08-20",
 		"expirationDate":"2021-09-29"
@@ -73,84 +73,1002 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Input_UserName: 3792568
-Input_fromGeopoliticalId: 2063825024503874704
-Input_toGeopoliticalId: 5695698121285912900
-Input_relationshipTypeCode: CS
-Input_effectiveDate2021-08-20
-Input_expirationDate2021-09-29
-Input_LastUpdateUserName:3792568
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_UserName: 3792568
-DB_GEOPL_COMPT_ID: 2063825024503874704
-DB_RELTD_GEOPL_COMPT_ID: 5695698121285912900
-DB_GEOPL_RLTSP_TYPE_CD: CS
-DB_effectiveDate2021-08-20
-DB_expirationDate2021-09-29
-DB_LastUpdateUserName:3792568
-</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>200</t>
+    <t/>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>400</t>
   </si>
   <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
-		"userName":"3792568",
 		"version":"1.0.0",
 		"message":
 		{
-			"status":"SUCCESS",
-			"internalMessage":"GeopoliticalRelationship Details successfully saved with GeoplRltspCmptId :2063825024503874704",
-			"data":null
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
 		}
 	},
-	"data":
-	{
-		"geoplRltspCmptId":2063825024503874704
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Error while getting Authorization data"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>TC_26</t>
+  </si>
+  <si>
+    <t>Verify the JMS-PASSED queue after the GeoRelatioship POST request sent</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Validate that the Geopolitical RelationShip service is not created when the fromGeopoliticalId is empty in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"",
+		"toGeopoliticalId":"6627979467700536952",
+		"relationshipTypeCode":"CS",
+		"effectiveDate":"2020-11-18",
+		"expirationDate":"2020-12-18"
 	}
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">Input_UserName: 3792568
+Input_fromGeopoliticalId: 
+Input_toGeopoliticalId: 6627979467700536952
+Input_relationshipTypeCode: CS
+Input_effectiveDate2020-11-18
+Input_expirationDate2020-12-18
+</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"fromGeopoliticalId",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Audit Table Validation</t>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the ERROR message is received when the empty value is passed in JSON for toGeopoliticalId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"511642362449307022",
+		"toGeopoliticalId":"",
+		"relationshipTypeCode":"CS",
+		"effectiveDate":"2020-11-19",
+		"expirationDate":"2020-12-19"
+	}
+}</t>
   </si>
   <si>
     <t xml:space="preserve">Input_UserName: 3792568
-Input_fromGeopoliticalId: 2063825024503874704
-Input_toGeopoliticalId: 5695698121285912900
+Input_fromGeopoliticalId: 511642362449307022
+Input_toGeopoliticalId: 
 Input_relationshipTypeCode: CS
-Input_effectiveDate2021-08-20
-Input_expirationDate2021-09-29
-Input_LastUpdateUserName:3792568
-Expected RevisionType CD:0
+Input_effectiveDate2020-11-19
+Input_expirationDate2020-12-19
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_UserName: 3792568
-DB_GEOPL_COMPT_ID: 2063825024503874704
-DB_RELTD_GEOPL_COMPT_ID: 5695698121285912900
-DB_GEOPL_RLTSP_TYPE_CD: CS
-DB_effectiveDate2021-08-20
-DB_expirationDate2021-09-29
-DB_LastUpdateUserName:3792568
-DB_RevisionType CD:0
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"toGeopoliticalId",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the empty value is passed in JSON for relationshipTypeCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"511642362449307022",
+		"toGeopoliticalId":"1699496278423413099",
+		"relationshipTypeCode":"",
+		"effectiveDate":"2020-11-20",
+		"expirationDate":"2020-12-20"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3792568
+Input_fromGeopoliticalId: 511642362449307022
+Input_toGeopoliticalId: 1699496278423413099
+Input_relationshipTypeCode: 
+Input_effectiveDate2020-11-20
+Input_expirationDate2020-12-20
 </t>
   </si>
   <si>
-    <t>Audit Table validation</t>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"relationshipTypeCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Validate that the Geopolitical RelationShip service is successfully when the empty value is passed in JSON for effectiveDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"511642362449307022",
+		"toGeopoliticalId":"7317162917942004948",
+		"relationshipTypeCode":"CS",
+		"effectiveDate":"",
+		"expirationDate":"2020-12-17"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify that the Geopolitical RS service is successfully created when the empty value is passed in JSON for expirationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"511642362449307022",
+		"toGeopoliticalId":"8304140630681873708",
+		"relationshipTypeCode":"CS",
+		"effectiveDate":"2020-11-17",
+		"expirationDate":""
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when invalid fromGeopoliticalId is passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"2821915649704793760",
+		"toGeopoliticalId":"2396988213862955070",
+		"relationshipTypeCode":"CS",
+		"effectiveDate":"2020-11-18",
+		"expirationDate":"2020-10-02"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{"meta":{"version":"1.0.0","message":{"status":"ERROR","internalMessage":"Exception","data":{"errorMessage":"Request Submitted With Error"}}},"errors":[{"fieldName":"Error","message":"Error while getting Authorization data"}]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is not a valid value</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when invalid toGeopoliticalId is passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"511642362449307022",
+		"toGeopoliticalId":"2536056159395638111",
+		"relationshipTypeCode":"CS",
+		"effectiveDate":"2020-11-19",
+		"expirationDate":"2020-10-02"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when invalid relationshipTypeCode is passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"2821915649704793760",
+		"toGeopoliticalId":"4505678172170650090",
+		"relationshipTypeCode":"ctry",
+		"effectiveDate":"2020-11-20",
+		"expirationDate":"2020-10-02"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when invalid effectiveDate is passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"1613726817991424876",
+		"toGeopoliticalId":"4942108503994332931",
+		"relationshipTypeCode":"CS",
+		"effectiveDate":"2020-15-95",
+		"expirationDate":"2020-10-02"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3792568
+Input_fromGeopoliticalId: 1613726817991424876
+Input_toGeopoliticalId: 4942108503994332931
+Input_relationshipTypeCode: CS
+Input_effectiveDate2020-15-95
+Input_expirationDate2020-10-02
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Invalid Date Format"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when invalid expirationDate is passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"2821915649704793760",
+		"toGeopoliticalId":"4505678172170650090",
+		"relationshipTypeCode":"CS",
+		"effectiveDate":"2020-11-22",
+		"expirationDate":"2019-15-45"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3792568
+Input_fromGeopoliticalId: 2821915649704793760
+Input_toGeopoliticalId: 4505678172170650090
+Input_relationshipTypeCode: CS
+Input_effectiveDate2020-11-22
+Input_expirationDate2019-15-45
+</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the meta data section is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"geopoliticalRelationship": 
+	{
+		"fromGeopoliticalId":"2821915649704793760",
+		"toGeopoliticalId":"4505678172170650090",
+		"relationshipTypeCode": "CS",
+		"effectiveDate": "2020-11-23",
+		   "expirationDate":  "2020-10-02"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3792568
+Input_fromGeopoliticalId: 2821915649704793760
+Input_toGeopoliticalId: 4505678172170650090
+Input_relationshipTypeCode: CS
+Input_effectiveDate2020-11-23
+Input_expirationDate2020-10-02
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"meta",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the fromGeopoliticalId attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta": 
+	{
+		"userName": "3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		    "toGeopoliticalId": "4505678172170650090",
+		"relationshipTypeCode": "CS",
+		 "effectiveDate": "2020-11-24",
+		"expirationDate": "2020-10-02"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3792568
+Input_fromGeopoliticalId: 
+Input_toGeopoliticalId: 4505678172170650090
+Input_relationshipTypeCode: CS
+Input_effectiveDate2020-11-24
+Input_expirationDate2020-10-02
+</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the toGeopoliticalId attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta": 
+	{
+		"userName": "3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		    "fromGeopoliticalId": "2821915649704793760",
+		"relationshipTypeCode": "CS",
+		 "effectiveDate": "2020-11-25",
+		"expirationDate": "2020-10-02"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3792568
+Input_fromGeopoliticalId: 2821915649704793760
+Input_toGeopoliticalId: 
+Input_relationshipTypeCode: CS
+Input_effectiveDate2020-11-25
+Input_expirationDate2020-10-02
+</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the relationshipTypeCode attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta": 
+	{
+		"userName": "3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		    "fromGeopoliticalId": "4464858527437817793",
+		"toGeopoliticalId": "1461285981502691567",
+		 "effectiveDate": "2020-11-17",
+		"expirationDate": "2020-12-17"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3792568
+Input_fromGeopoliticalId: 4464858527437817793
+Input_toGeopoliticalId: 1461285981502691567
+Input_relationshipTypeCode: 
+Input_effectiveDate2020-11-17
+Input_expirationDate2020-12-17
+</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>Validate that the Geopolitical RelationShip service is successfully when the effectiveDate attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta": 
+	{
+		"userName": "3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		    "fromGeopoliticalId": "511642362449307022",
+		"toGeopoliticalId": "925494432135651224",
+		 "relationshipTypeCode": "CS",
+		 "expirationDate": "2020-12-17"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>Verify that the Geopolitical RS service is successfully created when the expirationDate attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta": 
+	{
+		"userName": "3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		    "fromGeopoliticalId": "511642362449307022",
+		"toGeopoliticalId": "248159932008653632",
+		  "relationshipTypeCode": "CS",
+		 "effectiveDate": "2020-11-17"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the user name is null or Empty in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":""
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"164040711984436870",
+		"toGeopoliticalId":"1699496278423413099",
+		"relationshipTypeCode":"CS",
+		"effectiveDate":"2019-10-02",
+		"expirationDate":"2020-10-02"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 
+Input_fromGeopoliticalId: 164040711984436870
+Input_toGeopoliticalId: 1699496278423413099
+Input_relationshipTypeCode: CS
+Input_effectiveDate2019-10-02
+Input_expirationDate2020-10-02
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the fromGeopoliticalId is more than 50 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"164040711984436870164040711984436870164040711984436870",
+		"toGeopoliticalId":"1699496278423413099",
+		"relationshipTypeCode":"CS",
+		"effectiveDate":"2019-10-02",
+		"expirationDate":"2020-10-02"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3792568
+Input_fromGeopoliticalId: 164040711984436870164040711984436870164040711984436870
+Input_toGeopoliticalId: 1699496278423413099
+Input_relationshipTypeCode: CS
+Input_effectiveDate2019-10-02
+Input_expirationDate2020-10-02
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"fromGeopoliticalId",
+			"message":"  cannot be greater than 50 characters "
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the toGeopoliticalId is more than 50 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"164040711984436870",
+		"toGeopoliticalId":"164040711984436870164040711984436870164040711984436870",
+		"relationshipTypeCode":"CS",
+		"effectiveDate":"2019-10-02",
+		"expirationDate":"2020-10-02"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{"meta":{"version":"1.0.0","message":{"status":"ERROR","internalMessage":"Validation Failed","data":{"errorMessage":"Request Submitted With Error"}}},"errors":[{"fieldName":"toGeopoliticalId","message":"fromGeopoliticalId  cannot be greater than 50 characters "}]}</t>
+  </si>
+  <si>
+    <t>Error cannot be greater than 50 digits</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the relationshipTypeCode is more than 20 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"164040711984436870",
+		"toGeopoliticalId":"1699496278423413099",
+		"relationshipTypeCode":"CSATFCSATFCSATFCSATF1",
+		"effectiveDate":"2019-10-02",
+		"expirationDate":"2020-10-02"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3792568
+Input_fromGeopoliticalId: 164040711984436870
+Input_toGeopoliticalId: 1699496278423413099
+Input_relationshipTypeCode: CSATFCSATFCSATFCSATF1
+Input_effectiveDate2019-10-02
+Input_expirationDate2020-10-02
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"relationshipTypeCode",
+			"message":"  cannot be greater than 20 characters "
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the effectiveDate is other than timestamp format in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"164040711984436870",
+		"toGeopoliticalId":"1699496278423413099",
+		"relationshipTypeCode":"CS",
+		"effectiveDate":"20-05-2019",
+		"expirationDate":"2020-10-02"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3792568
+Input_fromGeopoliticalId: 164040711984436870
+Input_toGeopoliticalId: 1699496278423413099
+Input_relationshipTypeCode: CS
+Input_effectiveDate20-05-2019
+Input_expirationDate2020-10-02
+</t>
+  </si>
+  <si>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the expirationDate is other than timestamp format in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3792568"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"164040711984436870",
+		"toGeopoliticalId":"1699496278423413099",
+		"relationshipTypeCode":"CS",
+		"effectiveDate":"2019-10-02",
+		"expirationDate":"20-10-2019"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3792568
+Input_fromGeopoliticalId: 164040711984436870
+Input_toGeopoliticalId: 1699496278423413099
+Input_relationshipTypeCode: CS
+Input_effectiveDate2019-10-02
+Input_expirationDate20-10-2019
+</t>
+  </si>
+  <si>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the User Name is more than 25 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"AutomationAutomationAuto12"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"164040711984436870",
+		"toGeopoliticalId":"1699496278423413099",
+		"relationshipTypeCode":"CS",
+		"effectiveDate":"2019-10-02",
+		"expirationDate":"2019-10-02"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: AutomationAutomationAuto12
+Input_fromGeopoliticalId: 164040711984436870
+Input_toGeopoliticalId: 1699496278423413099
+Input_relationshipTypeCode: CS
+Input_effectiveDate2019-10-02
+Input_expirationDate2019-10-02
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" cannot be greater than 25 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t>Verify that the Exception is received when the URI is not correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3770052"
+	},
+	"geopoliticalRelationship":
+	{
+		"fromGeopoliticalId":"164040711984436870",
+		"toGeopoliticalId":"1699496278423413099",
+		"relationshipTypeCode":"CS",
+		"effectiveDate":"2019-10-02",
+		"expirationDate":"2019-10-02"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3770052
+Input_fromGeopoliticalId: 164040711984436870
+Input_toGeopoliticalId: 1699496278423413099
+Input_relationshipTypeCode: CS
+Input_effectiveDate2019-10-02
+Input_expirationDate2019-10-02
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 404 Not Found</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"timestamp":1587477983877,
+	"status":404,
+	"error":"Not Found",
+	"message":"No message available",
+	"path":"/v1/relat"
+}</t>
   </si>
 </sst>
 </file>
@@ -158,7 +1076,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="288">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -171,6 +1089,1326 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -349,7 +2587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -418,6 +2656,798 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -497,60 +3527,924 @@
         <v>15</v>
       </c>
       <c r="F2" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="H2" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="H2" t="s" s="9">
+      <c r="I2" t="s" s="10">
         <v>18</v>
       </c>
-      <c r="I2" t="s" s="10">
+      <c r="J2" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="J2" t="s" s="11">
+      <c r="K2" t="s" s="12">
         <v>20</v>
-      </c>
-      <c r="K2" t="s" s="12">
-        <v>21</v>
       </c>
       <c r="L2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="13">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="14">
         <v>22</v>
       </c>
       <c r="C3" t="s" s="15">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s" s="22">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="24">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="16">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s" s="17">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s" s="18">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s" s="19">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s" s="20">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s" s="21">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s" s="22">
+      <c r="D4" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="32">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s" s="33">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>15</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="35">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s" s="39">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s" s="40">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s" s="42">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="43">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s" s="44">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>15</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="46">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="48">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="49">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s" s="50">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s" s="51">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s" s="52">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s" s="53">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="54">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s" s="55">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s" s="56">
+        <v>15</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="57">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s" s="58">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s" s="59">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="60">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s" s="61">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s" s="62">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="63">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="64">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="66">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s" s="67">
         <v>20</v>
       </c>
-      <c r="K3" t="s" s="23">
-        <v>25</v>
-      </c>
-      <c r="L3"/>
+      <c r="L7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="68">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s" s="69">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s" s="70">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="71">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s" s="72">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s" s="73">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="74">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="75">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="76">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="77">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s" s="78">
+        <v>20</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s" s="86">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>52</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>15</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>52</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>63</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>15</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>15</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s" s="136">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="137">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s" s="140">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s" s="141">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>72</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>15</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s" s="147">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="148">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>15</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s" s="158">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="159">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s" s="162">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s" s="163">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s" s="166">
+        <v>15</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="167">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s" s="168">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s" s="169">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="170">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s" s="171">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s" s="172">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s" s="173">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s" s="174">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="175">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s" s="176">
+        <v>31</v>
+      </c>
+      <c r="K17" t="s" s="177">
+        <v>15</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="178">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s" s="179">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s" s="180">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="181">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s" s="182">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s" s="183">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s" s="184">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="185">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="186">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s" s="187">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s" s="188">
+        <v>20</v>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="189">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s" s="190">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s" s="191">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="192">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s" s="193">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s" s="194">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="195">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="196">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s" s="197">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s" s="198">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s" s="199">
+        <v>20</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="200">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s" s="201">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s" s="202">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="203">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s" s="204">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s" s="205">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s" s="206">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s" s="207">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s" s="208">
+        <v>95</v>
+      </c>
+      <c r="J20" t="s" s="209">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s" s="210">
+        <v>15</v>
+      </c>
+      <c r="L20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="211">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s" s="212">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s" s="213">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="214">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s" s="215">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s" s="216">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s" s="217">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s" s="218">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s" s="219">
+        <v>100</v>
+      </c>
+      <c r="J21" t="s" s="220">
+        <v>31</v>
+      </c>
+      <c r="K21" t="s" s="221">
+        <v>15</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="222">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s" s="223">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s" s="224">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="225">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s" s="226">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s" s="227">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s" s="228">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s" s="229">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s" s="230">
+        <v>104</v>
+      </c>
+      <c r="J22" t="s" s="231">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s" s="232">
+        <v>105</v>
+      </c>
+      <c r="L22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="233">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s" s="234">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s" s="235">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="236">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s" s="237">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s" s="238">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s" s="239">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s" s="240">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="241">
+        <v>110</v>
+      </c>
+      <c r="J23" t="s" s="242">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s" s="243">
+        <v>15</v>
+      </c>
+      <c r="L23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="244">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s" s="245">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s" s="246">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="247">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s" s="248">
+        <v>114</v>
+      </c>
+      <c r="F24" t="s" s="249">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s" s="250">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s" s="251">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s" s="252">
+        <v>63</v>
+      </c>
+      <c r="J24" t="s" s="253">
+        <v>31</v>
+      </c>
+      <c r="K24" t="s" s="254">
+        <v>15</v>
+      </c>
+      <c r="L24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="255">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s" s="256">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s" s="257">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="258">
+        <v>117</v>
+      </c>
+      <c r="E25" t="s" s="259">
+        <v>118</v>
+      </c>
+      <c r="F25" t="s" s="260">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s" s="261">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s" s="262">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s" s="263">
+        <v>63</v>
+      </c>
+      <c r="J25" t="s" s="264">
+        <v>31</v>
+      </c>
+      <c r="K25" t="s" s="265">
+        <v>15</v>
+      </c>
+      <c r="L25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="266">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s" s="267">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s" s="268">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s" s="269">
+        <v>121</v>
+      </c>
+      <c r="E26" t="s" s="270">
+        <v>122</v>
+      </c>
+      <c r="F26" t="s" s="271">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s" s="272">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s" s="273">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s" s="274">
+        <v>123</v>
+      </c>
+      <c r="J26" t="s" s="275">
+        <v>31</v>
+      </c>
+      <c r="K26" t="s" s="276">
+        <v>15</v>
+      </c>
+      <c r="L26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="277">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s" s="278">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s" s="279">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s" s="280">
+        <v>126</v>
+      </c>
+      <c r="E27" t="s" s="281">
+        <v>127</v>
+      </c>
+      <c r="F27" t="s" s="282">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s" s="283">
+        <v>128</v>
+      </c>
+      <c r="H27" t="s" s="284">
+        <v>129</v>
+      </c>
+      <c r="I27" t="s" s="285">
+        <v>130</v>
+      </c>
+      <c r="J27" t="s" s="286">
+        <v>31</v>
+      </c>
+      <c r="K27" t="s" s="287">
+        <v>15</v>
+      </c>
+      <c r="L27"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
